--- a/src/test/resources/filepath/Test.xlsx
+++ b/src/test/resources/filepath/Test.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>$ 27.307 CLP 14-10-20</t>
   </si>
@@ -43,6 +43,27 @@
   </si>
   <si>
     <t>$ 27.909 CLP 04-03-21</t>
+  </si>
+  <si>
+    <t>$ 27.957 CLP 16-03-21</t>
+  </si>
+  <si>
+    <t>$ 69.892 CLP 16-03-21</t>
+  </si>
+  <si>
+    <t>Proxy element for: DefaultElementLocator 'By.xpath: /html/body/div/div/div/div/div/div[2]/div[2]/div[1]/div/div[2]/h2' 16-03-21</t>
+  </si>
+  <si>
+    <t>Proxy element for: DefaultElementLocator 'By.xpath: /html/body/div/div/div/div/div/div[2]/div[2]/div[2]/div[2]/h2' 16-03-21</t>
+  </si>
+  <si>
+    <t>Proxy element for: DefaultElementLocator 'By.xpath: /html/body/div/div/div/div/div/div[2]/div[2]/div[1]/div/div[2]/h2'  Proxy element for: DefaultElementLocator 'By.xpath: /html/body/div/div/div/div/div/div[2]/div[2]/div[2]/div[2]/h2'  $ 27.957 CLP 16-03-21</t>
+  </si>
+  <si>
+    <t>Propiedad destacada x30  $587.327  IVA: $111.592  Total: $698.919 16-03-21</t>
+  </si>
+  <si>
+    <t>Propiedad destacada x30  $587.403  IVA: $111.607  Total: $699.010  18-03-21</t>
   </si>
 </sst>
 </file>
@@ -395,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A62913-EEAF-4FB6-B95A-B8F46E178A92}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -513,6 +534,56 @@
         <v>2</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
